--- a/BCancer2.xlsx
+++ b/BCancer2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Projects\Sci-kit Learn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/ML-DL-Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57ACE57B-9111-4562-BEB5-AC1FF02D73A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{57ACE57B-9111-4562-BEB5-AC1FF02D73A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2E55CB05-2975-4500-9A28-6220912F9272}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7A8438B4-6F87-4A02-BFC7-E86DA4733606}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="14676" windowHeight="8424" xr2:uid="{7A8438B4-6F87-4A02-BFC7-E86DA4733606}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="43">
   <si>
     <t>no-recurrence-events</t>
   </si>
@@ -132,6 +132,36 @@
   </si>
   <si>
     <t>24-26</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Menopause</t>
+  </si>
+  <si>
+    <t>TumorSize</t>
+  </si>
+  <si>
+    <t>InvNodes</t>
+  </si>
+  <si>
+    <t>NodeCaps</t>
+  </si>
+  <si>
+    <t>DegMalig</t>
+  </si>
+  <si>
+    <t>Breast</t>
+  </si>
+  <si>
+    <t>BreastQuad</t>
+  </si>
+  <si>
+    <t>Irradiat</t>
   </si>
 </sst>
 </file>
@@ -484,44 +514,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94925D14-A412-4DA5-B45C-00A0B1D15CAC}">
-  <dimension ref="A1:J286"/>
+  <dimension ref="A1:J287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -529,13 +559,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -544,13 +574,13 @@
         <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -579,10 +609,10 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>5</v>
@@ -593,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -611,10 +641,10 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
@@ -625,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
@@ -646,7 +676,7 @@
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
         <v>5</v>
@@ -657,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -675,10 +705,10 @@
         <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s">
         <v>5</v>
@@ -689,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>4</v>
@@ -721,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>4</v>
@@ -736,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -753,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -768,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -791,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
         <v>4</v>
@@ -803,10 +833,10 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J10" t="s">
         <v>5</v>
@@ -823,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
         <v>4</v>
@@ -832,13 +862,13 @@
         <v>5</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
         <v>5</v>
@@ -849,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
         <v>4</v>
@@ -864,13 +894,13 @@
         <v>5</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="s">
         <v>6</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
         <v>5</v>
@@ -881,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43752</v>
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
       </c>
       <c r="E13" t="s">
         <v>4</v>
@@ -896,13 +926,13 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J13" t="s">
         <v>5</v>
@@ -913,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43752</v>
       </c>
       <c r="E14" t="s">
         <v>4</v>
@@ -928,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
         <v>6</v>
@@ -945,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
         <v>4</v>
@@ -966,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J15" t="s">
         <v>5</v>
@@ -977,10 +1007,10 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -992,13 +1022,13 @@
         <v>5</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="s">
         <v>6</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
         <v>5</v>
@@ -1009,13 +1039,13 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -1024,7 +1054,7 @@
         <v>5</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>6</v>
@@ -1041,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
         <v>4</v>
@@ -1056,7 +1086,7 @@
         <v>5</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>6</v>
@@ -1073,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -1105,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1120,13 +1150,13 @@
         <v>5</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J20" t="s">
         <v>5</v>
@@ -1143,7 +1173,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
@@ -1152,13 +1182,13 @@
         <v>5</v>
       </c>
       <c r="G21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -1169,13 +1199,13 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E22" t="s">
         <v>4</v>
@@ -1201,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
         <v>4</v>
@@ -1219,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I23" t="s">
         <v>7</v>
@@ -1233,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -1251,10 +1281,10 @@
         <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J24" t="s">
         <v>5</v>
@@ -1271,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
@@ -1283,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I25" t="s">
         <v>15</v>
@@ -1297,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
         <v>4</v>
@@ -1315,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="H26" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I26" t="s">
         <v>15</v>
@@ -1329,13 +1359,13 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
         <v>4</v>
@@ -1344,13 +1374,13 @@
         <v>5</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
         <v>5</v>
@@ -1361,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E28" t="s">
         <v>4</v>
@@ -1376,13 +1406,13 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I28" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J28" t="s">
         <v>5</v>
@@ -1393,13 +1423,13 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E29" t="s">
         <v>4</v>
@@ -1408,13 +1438,13 @@
         <v>5</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H29" t="s">
         <v>10</v>
       </c>
       <c r="I29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
         <v>5</v>
@@ -1425,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
         <v>4</v>
@@ -1443,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I30" t="s">
         <v>7</v>
@@ -1457,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C31" t="s">
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
         <v>4</v>
@@ -1472,13 +1502,13 @@
         <v>5</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J31" t="s">
         <v>5</v>
@@ -1492,10 +1522,10 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E32" t="s">
         <v>4</v>
@@ -1504,13 +1534,13 @@
         <v>5</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="s">
         <v>10</v>
       </c>
       <c r="I32" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
         <v>5</v>
@@ -1526,8 +1556,8 @@
       <c r="C33" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="1">
-        <v>43752</v>
+      <c r="D33" t="s">
+        <v>14</v>
       </c>
       <c r="E33" t="s">
         <v>4</v>
@@ -1536,10 +1566,10 @@
         <v>5</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
         <v>7</v>
@@ -1556,7 +1586,7 @@
         <v>18</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D34" s="1">
         <v>43752</v>
@@ -1568,13 +1598,13 @@
         <v>5</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J34" t="s">
         <v>5</v>
@@ -1603,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
         <v>15</v>
@@ -1617,13 +1647,13 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <v>43752</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1632,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>6</v>
@@ -1649,13 +1679,13 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1670,7 +1700,7 @@
         <v>6</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J37" t="s">
         <v>5</v>
@@ -1687,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1696,10 +1726,10 @@
         <v>5</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I38" t="s">
         <v>21</v>
@@ -1713,13 +1743,13 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>43752</v>
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
       </c>
       <c r="E39" t="s">
         <v>4</v>
@@ -1728,13 +1758,13 @@
         <v>5</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I39" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J39" t="s">
         <v>5</v>
@@ -1750,8 +1780,8 @@
       <c r="C40" t="s">
         <v>2</v>
       </c>
-      <c r="D40" t="s">
-        <v>3</v>
+      <c r="D40" s="1">
+        <v>43752</v>
       </c>
       <c r="E40" t="s">
         <v>4</v>
@@ -1760,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
         <v>6</v>
@@ -1777,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
         <v>4</v>
@@ -1795,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I41" t="s">
         <v>7</v>
@@ -1809,13 +1839,13 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
@@ -1824,10 +1854,10 @@
         <v>5</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
         <v>7</v>
@@ -1846,8 +1876,8 @@
       <c r="C43" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1">
-        <v>43594</v>
+      <c r="D43" t="s">
+        <v>19</v>
       </c>
       <c r="E43" t="s">
         <v>4</v>
@@ -1856,13 +1886,13 @@
         <v>5</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>6</v>
       </c>
       <c r="I43" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J43" t="s">
         <v>5</v>
@@ -1873,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D44" s="1">
-        <v>43752</v>
+        <v>43594</v>
       </c>
       <c r="E44" t="s">
         <v>4</v>
@@ -1888,13 +1918,13 @@
         <v>5</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>6</v>
       </c>
       <c r="I44" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J44" t="s">
         <v>5</v>
@@ -1905,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>43752</v>
       </c>
       <c r="E45" t="s">
         <v>4</v>
@@ -1920,13 +1950,13 @@
         <v>5</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J45" t="s">
         <v>5</v>
@@ -1943,7 +1973,7 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E46" t="s">
         <v>4</v>
@@ -1955,10 +1985,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J46" t="s">
         <v>5</v>
@@ -1969,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E47" t="s">
         <v>4</v>
@@ -1984,13 +2014,13 @@
         <v>5</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I47" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
         <v>5</v>
@@ -2001,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -2016,13 +2046,13 @@
         <v>5</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
         <v>10</v>
       </c>
       <c r="I48" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J48" t="s">
         <v>5</v>
@@ -2033,13 +2063,13 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E49" t="s">
         <v>4</v>
@@ -2054,7 +2084,7 @@
         <v>10</v>
       </c>
       <c r="I49" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
         <v>5</v>
@@ -2086,7 +2116,7 @@
         <v>10</v>
       </c>
       <c r="I50" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J50" t="s">
         <v>5</v>
@@ -2097,13 +2127,13 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E51" t="s">
         <v>4</v>
@@ -2112,10 +2142,10 @@
         <v>5</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I51" t="s">
         <v>7</v>
@@ -2129,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C52" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
@@ -2150,7 +2180,7 @@
         <v>6</v>
       </c>
       <c r="I52" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J52" t="s">
         <v>5</v>
@@ -2161,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E53" t="s">
         <v>4</v>
@@ -2176,13 +2206,13 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>6</v>
       </c>
       <c r="I53" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J53" t="s">
         <v>5</v>
@@ -2193,13 +2223,13 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E54" t="s">
         <v>4</v>
@@ -2208,13 +2238,13 @@
         <v>5</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>6</v>
       </c>
       <c r="I54" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J54" t="s">
         <v>5</v>
@@ -2231,7 +2261,7 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E55" t="s">
         <v>4</v>
@@ -2240,10 +2270,10 @@
         <v>5</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I55" t="s">
         <v>15</v>
@@ -2278,7 +2308,7 @@
         <v>10</v>
       </c>
       <c r="I56" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J56" t="s">
         <v>5</v>
@@ -2289,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E57" t="s">
         <v>4</v>
@@ -2310,7 +2340,7 @@
         <v>10</v>
       </c>
       <c r="I57" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J57" t="s">
         <v>5</v>
@@ -2326,8 +2356,8 @@
       <c r="C58" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="1">
-        <v>43594</v>
+      <c r="D58" t="s">
+        <v>16</v>
       </c>
       <c r="E58" t="s">
         <v>4</v>
@@ -2336,13 +2366,13 @@
         <v>5</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>10</v>
       </c>
       <c r="I58" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J58" t="s">
         <v>5</v>
@@ -2353,13 +2383,13 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
-      <c r="D59" t="s">
-        <v>3</v>
+      <c r="D59" s="1">
+        <v>43594</v>
       </c>
       <c r="E59" t="s">
         <v>4</v>
@@ -2368,13 +2398,13 @@
         <v>5</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I59" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J59" t="s">
         <v>5</v>
@@ -2391,7 +2421,7 @@
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E60" t="s">
         <v>4</v>
@@ -2403,7 +2433,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I60" t="s">
         <v>15</v>
@@ -2417,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E61" t="s">
         <v>4</v>
@@ -2432,13 +2462,13 @@
         <v>5</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I61" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J61" t="s">
         <v>5</v>
@@ -2454,8 +2484,8 @@
       <c r="C62" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="1">
-        <v>43752</v>
+      <c r="D62" t="s">
+        <v>9</v>
       </c>
       <c r="E62" t="s">
         <v>4</v>
@@ -2464,13 +2494,13 @@
         <v>5</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
         <v>5</v>
@@ -2481,13 +2511,13 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
-      </c>
-      <c r="D63" t="s">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>43752</v>
       </c>
       <c r="E63" t="s">
         <v>4</v>
@@ -2499,10 +2529,10 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I63" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
         <v>5</v>
@@ -2513,13 +2543,13 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
         <v>4</v>
@@ -2528,13 +2558,13 @@
         <v>5</v>
       </c>
       <c r="G64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J64" t="s">
         <v>5</v>
@@ -2545,13 +2575,13 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E65" t="s">
         <v>4</v>
@@ -2560,13 +2590,13 @@
         <v>5</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J65" t="s">
         <v>5</v>
@@ -2582,8 +2612,8 @@
       <c r="C66" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="1">
-        <v>43752</v>
+      <c r="D66" t="s">
+        <v>19</v>
       </c>
       <c r="E66" t="s">
         <v>4</v>
@@ -2595,10 +2625,10 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I66" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J66" t="s">
         <v>5</v>
@@ -2614,8 +2644,8 @@
       <c r="C67" t="s">
         <v>2</v>
       </c>
-      <c r="D67" t="s">
-        <v>19</v>
+      <c r="D67" s="1">
+        <v>43752</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -2630,7 +2660,7 @@
         <v>10</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J67" t="s">
         <v>5</v>
@@ -2641,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -2656,13 +2686,13 @@
         <v>5</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I68" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J68" t="s">
         <v>5</v>
@@ -2679,7 +2709,7 @@
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
         <v>4</v>
@@ -2694,7 +2724,7 @@
         <v>6</v>
       </c>
       <c r="I69" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J69" t="s">
         <v>5</v>
@@ -2705,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
@@ -2720,7 +2750,7 @@
         <v>5</v>
       </c>
       <c r="G70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H70" t="s">
         <v>6</v>
@@ -2742,8 +2772,8 @@
       <c r="C71" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="1">
-        <v>43752</v>
+      <c r="D71" t="s">
+        <v>20</v>
       </c>
       <c r="E71" t="s">
         <v>4</v>
@@ -2752,7 +2782,7 @@
         <v>5</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
         <v>6</v>
@@ -2769,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D72" s="1">
+        <v>43752</v>
       </c>
       <c r="E72" t="s">
         <v>4</v>
@@ -2784,13 +2814,13 @@
         <v>5</v>
       </c>
       <c r="G72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I72" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J72" t="s">
         <v>5</v>
@@ -2801,13 +2831,13 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E73" t="s">
         <v>4</v>
@@ -2819,7 +2849,7 @@
         <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I73" t="s">
         <v>15</v>
@@ -2833,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E74" t="s">
         <v>4</v>
@@ -2851,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J74" t="s">
         <v>5</v>
@@ -2865,13 +2895,13 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="1">
-        <v>43594</v>
+      <c r="D75" t="s">
+        <v>14</v>
       </c>
       <c r="E75" t="s">
         <v>4</v>
@@ -2883,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -2897,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D76" s="1">
-        <v>43752</v>
+        <v>43594</v>
       </c>
       <c r="E76" t="s">
         <v>4</v>
@@ -2912,13 +2942,13 @@
         <v>5</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="s">
         <v>6</v>
       </c>
       <c r="I76" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J76" t="s">
         <v>5</v>
@@ -2944,7 +2974,7 @@
         <v>5</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>6</v>
@@ -2961,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C78" t="s">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="D78" s="1">
+        <v>43752</v>
       </c>
       <c r="E78" t="s">
         <v>4</v>
@@ -2976,13 +3006,13 @@
         <v>5</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
         <v>6</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J78" t="s">
         <v>5</v>
@@ -2993,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -3008,13 +3038,13 @@
         <v>5</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>6</v>
       </c>
       <c r="I79" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J79" t="s">
         <v>5</v>
@@ -3025,7 +3055,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -3043,10 +3073,10 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J80" t="s">
         <v>5</v>
@@ -3057,13 +3087,13 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" s="1">
-        <v>43752</v>
+        <v>2</v>
+      </c>
+      <c r="D81" t="s">
+        <v>19</v>
       </c>
       <c r="E81" t="s">
         <v>4</v>
@@ -3078,7 +3108,7 @@
         <v>10</v>
       </c>
       <c r="I81" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
         <v>5</v>
@@ -3089,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -3104,13 +3134,13 @@
         <v>5</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I82" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J82" t="s">
         <v>5</v>
@@ -3126,8 +3156,8 @@
       <c r="C83" t="s">
         <v>13</v>
       </c>
-      <c r="D83" t="s">
-        <v>14</v>
+      <c r="D83" s="1">
+        <v>43752</v>
       </c>
       <c r="E83" t="s">
         <v>4</v>
@@ -3136,13 +3166,13 @@
         <v>5</v>
       </c>
       <c r="G83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I83" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J83" t="s">
         <v>5</v>
@@ -3153,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>13</v>
@@ -3185,13 +3215,13 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C85" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E85" t="s">
         <v>4</v>
@@ -3200,13 +3230,13 @@
         <v>5</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J85" t="s">
         <v>5</v>
@@ -3217,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
         <v>4</v>
@@ -3232,13 +3262,13 @@
         <v>5</v>
       </c>
       <c r="G86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>6</v>
       </c>
       <c r="I86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J86" t="s">
         <v>5</v>
@@ -3249,13 +3279,13 @@
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
@@ -3264,13 +3294,13 @@
         <v>5</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H87" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I87" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J87" t="s">
         <v>5</v>
@@ -3281,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E88" t="s">
         <v>4</v>
@@ -3296,13 +3326,13 @@
         <v>5</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I88" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J88" t="s">
         <v>5</v>
@@ -3313,13 +3343,13 @@
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
         <v>4</v>
@@ -3328,13 +3358,13 @@
         <v>5</v>
       </c>
       <c r="G89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I89" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J89" t="s">
         <v>5</v>
@@ -3345,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E90" t="s">
         <v>4</v>
@@ -3360,7 +3390,7 @@
         <v>5</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H90" t="s">
         <v>10</v>
@@ -3377,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E91" t="s">
         <v>4</v>
@@ -3392,13 +3422,13 @@
         <v>5</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>10</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J91" t="s">
         <v>5</v>
@@ -3409,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -3424,13 +3454,13 @@
         <v>5</v>
       </c>
       <c r="G92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I92" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J92" t="s">
         <v>5</v>
@@ -3447,7 +3477,7 @@
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E93" t="s">
         <v>4</v>
@@ -3456,10 +3486,10 @@
         <v>5</v>
       </c>
       <c r="G93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H93" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I93" t="s">
         <v>15</v>
@@ -3473,13 +3503,13 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C94" t="s">
         <v>13</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E94" t="s">
         <v>4</v>
@@ -3505,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>2</v>
-      </c>
-      <c r="D95" s="1">
-        <v>43752</v>
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>9</v>
       </c>
       <c r="E95" t="s">
         <v>4</v>
@@ -3520,13 +3550,13 @@
         <v>5</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I95" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J95" t="s">
         <v>5</v>
@@ -3537,13 +3567,13 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
       </c>
-      <c r="D96" t="s">
-        <v>3</v>
+      <c r="D96" s="1">
+        <v>43752</v>
       </c>
       <c r="E96" t="s">
         <v>4</v>
@@ -3552,13 +3582,13 @@
         <v>5</v>
       </c>
       <c r="G96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I96" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J96" t="s">
         <v>5</v>
@@ -3569,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D97" t="s">
         <v>3</v>
@@ -3587,10 +3617,10 @@
         <v>2</v>
       </c>
       <c r="H97" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I97" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J97" t="s">
         <v>5</v>
@@ -3607,7 +3637,7 @@
         <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
         <v>4</v>
@@ -3619,7 +3649,7 @@
         <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I98" t="s">
         <v>15</v>
@@ -3633,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
@@ -3648,13 +3678,13 @@
         <v>5</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I99" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J99" t="s">
         <v>5</v>
@@ -3665,13 +3695,13 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
         <v>4</v>
@@ -3680,13 +3710,13 @@
         <v>5</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>6</v>
       </c>
       <c r="I100" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J100" t="s">
         <v>5</v>
@@ -3697,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E101" t="s">
         <v>4</v>
@@ -3712,7 +3742,7 @@
         <v>5</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H101" t="s">
         <v>6</v>
@@ -3729,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>13</v>
       </c>
       <c r="D102" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E102" t="s">
         <v>4</v>
@@ -3747,7 +3777,7 @@
         <v>3</v>
       </c>
       <c r="H102" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I102" t="s">
         <v>7</v>
@@ -3764,10 +3794,10 @@
         <v>18</v>
       </c>
       <c r="C103" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E103" t="s">
         <v>4</v>
@@ -3776,13 +3806,13 @@
         <v>5</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H103" t="s">
         <v>10</v>
       </c>
       <c r="I103" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J103" t="s">
         <v>5</v>
@@ -3793,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E104" t="s">
         <v>4</v>
@@ -3811,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I104" t="s">
         <v>17</v>
@@ -3830,8 +3860,8 @@
       <c r="C105" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="1">
-        <v>43752</v>
+      <c r="D105" t="s">
+        <v>9</v>
       </c>
       <c r="E105" t="s">
         <v>4</v>
@@ -3843,10 +3873,10 @@
         <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I105" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J105" t="s">
         <v>5</v>
@@ -3862,8 +3892,8 @@
       <c r="C106" t="s">
         <v>2</v>
       </c>
-      <c r="D106" t="s">
-        <v>3</v>
+      <c r="D106" s="1">
+        <v>43752</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -3872,13 +3902,13 @@
         <v>5</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>10</v>
       </c>
       <c r="I106" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J106" t="s">
         <v>5</v>
@@ -3895,7 +3925,7 @@
         <v>2</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E107" t="s">
         <v>4</v>
@@ -3904,10 +3934,10 @@
         <v>5</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I107" t="s">
         <v>15</v>
@@ -3921,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E108" t="s">
         <v>4</v>
@@ -3939,10 +3969,10 @@
         <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I108" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J108" t="s">
         <v>5</v>
@@ -3953,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E109" t="s">
         <v>4</v>
@@ -3968,7 +3998,7 @@
         <v>5</v>
       </c>
       <c r="G109">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
         <v>10</v>
@@ -3985,10 +4015,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D110" t="s">
         <v>3</v>
@@ -4000,13 +4030,13 @@
         <v>5</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H110" t="s">
         <v>10</v>
       </c>
       <c r="I110" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J110" t="s">
         <v>5</v>
@@ -4017,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E111" t="s">
         <v>4</v>
@@ -4035,10 +4065,10 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I111" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J111" t="s">
         <v>5</v>
@@ -4055,7 +4085,7 @@
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E112" t="s">
         <v>4</v>
@@ -4067,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="H112" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I112" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J112" t="s">
         <v>5</v>
@@ -4081,13 +4111,13 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E113" t="s">
         <v>4</v>
@@ -4096,13 +4126,13 @@
         <v>5</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>10</v>
       </c>
       <c r="I113" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J113" t="s">
         <v>5</v>
@@ -4118,8 +4148,8 @@
       <c r="C114" t="s">
         <v>2</v>
       </c>
-      <c r="D114" s="1">
-        <v>43752</v>
+      <c r="D114" t="s">
+        <v>9</v>
       </c>
       <c r="E114" t="s">
         <v>4</v>
@@ -4128,7 +4158,7 @@
         <v>5</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
         <v>10</v>
@@ -4150,8 +4180,8 @@
       <c r="C115" t="s">
         <v>2</v>
       </c>
-      <c r="D115" t="s">
-        <v>24</v>
+      <c r="D115" s="1">
+        <v>43752</v>
       </c>
       <c r="E115" t="s">
         <v>4</v>
@@ -4160,13 +4190,13 @@
         <v>5</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115" t="s">
         <v>10</v>
       </c>
       <c r="I115" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J115" t="s">
         <v>5</v>
@@ -4177,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E116" t="s">
         <v>4</v>
@@ -4198,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="I116" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J116" t="s">
         <v>5</v>
@@ -4209,13 +4239,13 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C117" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E117" t="s">
         <v>4</v>
@@ -4224,13 +4254,13 @@
         <v>5</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H117" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I117" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J117" t="s">
         <v>5</v>
@@ -4241,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E118" t="s">
         <v>4</v>
@@ -4256,13 +4286,13 @@
         <v>5</v>
       </c>
       <c r="G118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H118" t="s">
         <v>6</v>
       </c>
       <c r="I118" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J118" t="s">
         <v>5</v>
@@ -4273,13 +4303,13 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>2</v>
-      </c>
-      <c r="D119" s="1">
-        <v>43752</v>
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>9</v>
       </c>
       <c r="E119" t="s">
         <v>4</v>
@@ -4288,13 +4318,13 @@
         <v>5</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I119" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J119" t="s">
         <v>5</v>
@@ -4305,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>43752</v>
       </c>
       <c r="E120" t="s">
         <v>4</v>
@@ -4323,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="H120" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I120" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J120" t="s">
         <v>5</v>
@@ -4343,7 +4373,7 @@
         <v>13</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E121" t="s">
         <v>4</v>
@@ -4358,7 +4388,7 @@
         <v>6</v>
       </c>
       <c r="I121" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J121" t="s">
         <v>5</v>
@@ -4369,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E122" t="s">
         <v>4</v>
@@ -4384,13 +4414,13 @@
         <v>5</v>
       </c>
       <c r="G122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I122" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J122" t="s">
         <v>5</v>
@@ -4407,7 +4437,7 @@
         <v>13</v>
       </c>
       <c r="D123" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E123" t="s">
         <v>4</v>
@@ -4416,13 +4446,13 @@
         <v>5</v>
       </c>
       <c r="G123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H123" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I123" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J123" t="s">
         <v>5</v>
@@ -4439,7 +4469,7 @@
         <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E124" t="s">
         <v>4</v>
@@ -4448,13 +4478,13 @@
         <v>5</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H124" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I124" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J124" t="s">
         <v>5</v>
@@ -4465,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
       </c>
-      <c r="D125" s="1">
-        <v>43752</v>
+      <c r="D125" t="s">
+        <v>3</v>
       </c>
       <c r="E125" t="s">
         <v>4</v>
@@ -4497,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -4512,13 +4542,13 @@
         <v>5</v>
       </c>
       <c r="G126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I126" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J126" t="s">
         <v>5</v>
@@ -4529,28 +4559,28 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C127" t="s">
-        <v>2</v>
-      </c>
-      <c r="D127" t="s">
-        <v>3</v>
-      </c>
-      <c r="E127" s="1">
-        <v>43624</v>
+        <v>13</v>
+      </c>
+      <c r="D127" s="1">
+        <v>43752</v>
+      </c>
+      <c r="E127" t="s">
+        <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G127">
         <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I127" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J127" t="s">
         <v>5</v>
@@ -4567,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E128" s="1">
         <v>43624</v>
@@ -4582,10 +4612,10 @@
         <v>10</v>
       </c>
       <c r="I128" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J128" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -4593,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C129" t="s">
         <v>2</v>
@@ -4601,8 +4631,8 @@
       <c r="D129" t="s">
         <v>19</v>
       </c>
-      <c r="E129" t="s">
-        <v>4</v>
+      <c r="E129" s="1">
+        <v>43624</v>
       </c>
       <c r="F129" t="s">
         <v>27</v>
@@ -4611,13 +4641,13 @@
         <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I129" t="s">
         <v>15</v>
       </c>
       <c r="J129" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.3">
@@ -4625,16 +4655,16 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C130" t="s">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>24</v>
-      </c>
-      <c r="E130" s="1">
-        <v>43719</v>
+        <v>19</v>
+      </c>
+      <c r="E130" t="s">
+        <v>4</v>
       </c>
       <c r="F130" t="s">
         <v>27</v>
@@ -4643,13 +4673,13 @@
         <v>2</v>
       </c>
       <c r="H130" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I130" t="s">
         <v>15</v>
       </c>
       <c r="J130" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -4678,7 +4708,7 @@
         <v>10</v>
       </c>
       <c r="I131" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J131" t="s">
         <v>27</v>
@@ -4695,22 +4725,22 @@
         <v>2</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E132" s="1">
-        <v>43529</v>
+        <v>43719</v>
       </c>
       <c r="F132" t="s">
         <v>27</v>
       </c>
       <c r="G132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H132" t="s">
         <v>10</v>
       </c>
       <c r="I132" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J132" t="s">
         <v>27</v>
@@ -4727,25 +4757,25 @@
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E133" s="1">
-        <v>43624</v>
+        <v>43529</v>
       </c>
       <c r="F133" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I133" t="s">
         <v>15</v>
       </c>
       <c r="J133" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
@@ -4753,28 +4783,28 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
-      </c>
-      <c r="E134" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E134" s="1">
+        <v>43624</v>
       </c>
       <c r="F134" t="s">
         <v>5</v>
       </c>
       <c r="G134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H134" t="s">
         <v>6</v>
       </c>
       <c r="I134" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J134" t="s">
         <v>5</v>
@@ -4785,13 +4815,13 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C135" t="s">
         <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E135" t="s">
         <v>4</v>
@@ -4800,16 +4830,16 @@
         <v>5</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H135" t="s">
         <v>6</v>
       </c>
       <c r="I135" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J135" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -4817,16 +4847,16 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C136" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
-      </c>
-      <c r="E136" s="1">
-        <v>43529</v>
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>4</v>
       </c>
       <c r="F136" t="s">
         <v>5</v>
@@ -4835,13 +4865,13 @@
         <v>2</v>
       </c>
       <c r="H136" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I136" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J136" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -4855,7 +4885,7 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E137" s="1">
         <v>43529</v>
@@ -4864,16 +4894,16 @@
         <v>5</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H137" t="s">
         <v>10</v>
       </c>
       <c r="I137" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J137" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
@@ -4881,28 +4911,28 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C138" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="1">
-        <v>43594</v>
-      </c>
-      <c r="E138" t="s">
-        <v>4</v>
+      <c r="D138" t="s">
+        <v>23</v>
+      </c>
+      <c r="E138" s="1">
+        <v>43529</v>
       </c>
       <c r="F138" t="s">
         <v>5</v>
       </c>
       <c r="G138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H138" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I138" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J138" t="s">
         <v>27</v>
@@ -4913,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>2</v>
       </c>
-      <c r="D139" t="s">
-        <v>23</v>
+      <c r="D139" s="1">
+        <v>43594</v>
       </c>
       <c r="E139" t="s">
         <v>4</v>
@@ -4928,7 +4958,7 @@
         <v>5</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>6</v>
@@ -4945,13 +4975,13 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C140" t="s">
         <v>2</v>
       </c>
       <c r="D140" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E140" t="s">
         <v>4</v>
@@ -4966,10 +4996,10 @@
         <v>6</v>
       </c>
       <c r="I140" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J140" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -4977,19 +5007,19 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>23</v>
-      </c>
-      <c r="E141" s="1">
-        <v>43529</v>
+        <v>3</v>
+      </c>
+      <c r="E141" t="s">
+        <v>4</v>
       </c>
       <c r="F141" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G141">
         <v>2</v>
@@ -4998,7 +5028,7 @@
         <v>6</v>
       </c>
       <c r="I141" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J141" t="s">
         <v>5</v>
@@ -5012,10 +5042,10 @@
         <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E142" s="1">
         <v>43529</v>
@@ -5041,28 +5071,28 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C143" t="s">
-        <v>13</v>
-      </c>
-      <c r="D143" s="1">
-        <v>43752</v>
-      </c>
-      <c r="E143" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="1">
+        <v>43529</v>
       </c>
       <c r="F143" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>6</v>
       </c>
       <c r="I143" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J143" t="s">
         <v>5</v>
@@ -5073,13 +5103,13 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C144" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+      <c r="D144" s="1">
+        <v>43752</v>
       </c>
       <c r="E144" t="s">
         <v>4</v>
@@ -5088,16 +5118,16 @@
         <v>5</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H144" t="s">
         <v>6</v>
       </c>
       <c r="I144" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J144" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -5105,31 +5135,31 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D145" t="s">
         <v>28</v>
       </c>
-      <c r="E145" s="1">
-        <v>43624</v>
+      <c r="E145" t="s">
+        <v>4</v>
       </c>
       <c r="F145" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
         <v>6</v>
       </c>
       <c r="I145" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J145" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -5137,31 +5167,31 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C146" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D146" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" t="s">
-        <v>4</v>
+        <v>28</v>
+      </c>
+      <c r="E146" s="1">
+        <v>43624</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H146" t="s">
         <v>6</v>
       </c>
       <c r="I146" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J146" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -5169,28 +5199,28 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D147" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E147" t="s">
         <v>4</v>
       </c>
       <c r="F147" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G147">
         <v>2</v>
       </c>
       <c r="H147" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I147" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J147" t="s">
         <v>27</v>
@@ -5201,28 +5231,28 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C148" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D148" t="s">
-        <v>3</v>
-      </c>
-      <c r="E148" s="1">
-        <v>43529</v>
+        <v>20</v>
+      </c>
+      <c r="E148" t="s">
+        <v>4</v>
       </c>
       <c r="F148" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G148">
         <v>2</v>
       </c>
       <c r="H148" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I148" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J148" t="s">
         <v>27</v>
@@ -5233,31 +5263,31 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C149" t="s">
         <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
-      </c>
-      <c r="E149" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E149" s="1">
+        <v>43529</v>
       </c>
       <c r="F149" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H149" t="s">
         <v>6</v>
       </c>
       <c r="I149" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J149" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -5265,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C150" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E150" t="s">
         <v>4</v>
@@ -5283,10 +5313,10 @@
         <v>3</v>
       </c>
       <c r="H150" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I150" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J150" t="s">
         <v>5</v>
@@ -5300,16 +5330,16 @@
         <v>18</v>
       </c>
       <c r="C151" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D151" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G151">
         <v>3</v>
@@ -5329,16 +5359,16 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C152" t="s">
         <v>13</v>
       </c>
       <c r="D152" t="s">
-        <v>3</v>
-      </c>
-      <c r="E152" s="1">
-        <v>43529</v>
+        <v>19</v>
+      </c>
+      <c r="E152" t="s">
+        <v>30</v>
       </c>
       <c r="F152" t="s">
         <v>27</v>
@@ -5347,10 +5377,10 @@
         <v>3</v>
       </c>
       <c r="H152" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I152" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J152" t="s">
         <v>5</v>
@@ -5361,19 +5391,19 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C153" t="s">
         <v>13</v>
       </c>
       <c r="D153" t="s">
-        <v>24</v>
-      </c>
-      <c r="E153" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E153" s="1">
+        <v>43529</v>
       </c>
       <c r="F153" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -5393,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
       </c>
       <c r="D154" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E154" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F154" t="s">
         <v>5</v>
@@ -5411,13 +5441,13 @@
         <v>3</v>
       </c>
       <c r="H154" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I154" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J154" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -5425,10 +5455,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C155" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D155" t="s">
         <v>14</v>
@@ -5449,7 +5479,7 @@
         <v>15</v>
       </c>
       <c r="J155" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -5457,22 +5487,22 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C156" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D156" t="s">
-        <v>23</v>
-      </c>
-      <c r="E156" s="1">
-        <v>43529</v>
+        <v>14</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
       </c>
       <c r="F156" t="s">
         <v>5</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H156" t="s">
         <v>10</v>
@@ -5481,7 +5511,7 @@
         <v>15</v>
       </c>
       <c r="J156" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -5489,22 +5519,22 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C157" t="s">
         <v>13</v>
       </c>
       <c r="D157" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E157" s="1">
         <v>43529</v>
       </c>
       <c r="F157" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H157" t="s">
         <v>10</v>
@@ -5513,7 +5543,7 @@
         <v>15</v>
       </c>
       <c r="J157" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
@@ -5524,25 +5554,25 @@
         <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D158" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E158" s="1">
+        <v>43529</v>
       </c>
       <c r="F158" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G158">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H158" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I158" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J158" t="s">
         <v>5</v>
@@ -5556,7 +5586,7 @@
         <v>18</v>
       </c>
       <c r="C159" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
         <v>3</v>
@@ -5571,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I159" t="s">
         <v>21</v>
@@ -5585,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C160" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D160" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E160" t="s">
         <v>4</v>
@@ -5603,10 +5633,10 @@
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I160" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J160" t="s">
         <v>5</v>
@@ -5623,7 +5653,7 @@
         <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E161" t="s">
         <v>4</v>
@@ -5632,16 +5662,16 @@
         <v>5</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I161" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J161" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -5655,25 +5685,25 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>3</v>
-      </c>
-      <c r="E162" s="1">
-        <v>43529</v>
+        <v>19</v>
+      </c>
+      <c r="E162" t="s">
+        <v>4</v>
       </c>
       <c r="F162" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H162" t="s">
         <v>10</v>
       </c>
       <c r="I162" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J162" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -5681,19 +5711,19 @@
         <v>0</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>13</v>
-      </c>
-      <c r="D163" s="1">
-        <v>43752</v>
-      </c>
-      <c r="E163" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+      <c r="E163" s="1">
+        <v>43529</v>
       </c>
       <c r="F163" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -5702,10 +5732,10 @@
         <v>10</v>
       </c>
       <c r="I163" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J163" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -5718,17 +5748,17 @@
       <c r="C164" t="s">
         <v>13</v>
       </c>
-      <c r="D164" t="s">
-        <v>19</v>
-      </c>
-      <c r="E164" s="1">
-        <v>43529</v>
+      <c r="D164" s="1">
+        <v>43752</v>
+      </c>
+      <c r="E164" t="s">
+        <v>4</v>
       </c>
       <c r="F164" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164" t="s">
         <v>10</v>
@@ -5766,7 +5796,7 @@
         <v>10</v>
       </c>
       <c r="I165" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J165" t="s">
         <v>27</v>
@@ -5777,31 +5807,31 @@
         <v>0</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C166" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E166" s="1">
         <v>43529</v>
       </c>
       <c r="F166" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H166" t="s">
         <v>10</v>
       </c>
       <c r="I166" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J166" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -5830,7 +5860,7 @@
         <v>10</v>
       </c>
       <c r="I167" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J167" t="s">
         <v>5</v>
@@ -5844,16 +5874,16 @@
         <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>23</v>
-      </c>
-      <c r="E168" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E168" s="1">
+        <v>43529</v>
       </c>
       <c r="F168" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -5862,10 +5892,10 @@
         <v>10</v>
       </c>
       <c r="I168" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J168" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -5873,19 +5903,19 @@
         <v>0</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>2</v>
-      </c>
-      <c r="D169" s="1">
-        <v>43752</v>
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>23</v>
       </c>
       <c r="E169" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -5897,7 +5927,7 @@
         <v>15</v>
       </c>
       <c r="J169" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -5905,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C170" t="s">
-        <v>13</v>
-      </c>
-      <c r="D170" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D170" s="1">
+        <v>43752</v>
       </c>
       <c r="E170" t="s">
         <v>4</v>
@@ -5923,13 +5953,13 @@
         <v>2</v>
       </c>
       <c r="H170" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I170" t="s">
         <v>15</v>
       </c>
       <c r="J170" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -5937,25 +5967,25 @@
         <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
-      </c>
-      <c r="E171" s="1">
-        <v>43529</v>
+        <v>3</v>
+      </c>
+      <c r="E171" t="s">
+        <v>4</v>
       </c>
       <c r="F171" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G171">
         <v>2</v>
       </c>
       <c r="H171" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I171" t="s">
         <v>15</v>
@@ -5975,25 +6005,25 @@
         <v>2</v>
       </c>
       <c r="D172" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E172" s="1">
+        <v>43529</v>
       </c>
       <c r="F172" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H172" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I172" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J172" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -6001,28 +6031,28 @@
         <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C173" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D173" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173" s="1">
-        <v>43624</v>
+        <v>14</v>
+      </c>
+      <c r="E173" t="s">
+        <v>4</v>
       </c>
       <c r="F173" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G173">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H173" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I173" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J173" t="s">
         <v>5</v>
@@ -6033,16 +6063,16 @@
         <v>0</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C174" t="s">
         <v>13</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E174" s="1">
-        <v>43529</v>
+        <v>43624</v>
       </c>
       <c r="F174" t="s">
         <v>27</v>
@@ -6054,7 +6084,7 @@
         <v>10</v>
       </c>
       <c r="I174" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J174" t="s">
         <v>5</v>
@@ -6068,10 +6098,10 @@
         <v>18</v>
       </c>
       <c r="C175" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E175" s="1">
         <v>43529</v>
@@ -6083,13 +6113,13 @@
         <v>2</v>
       </c>
       <c r="H175" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I175" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J175" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -6097,28 +6127,28 @@
         <v>0</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C176" t="s">
         <v>2</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
-      </c>
-      <c r="E176" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E176" s="1">
+        <v>43529</v>
       </c>
       <c r="F176" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G176">
         <v>2</v>
       </c>
       <c r="H176" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I176" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J176" t="s">
         <v>27</v>
@@ -6132,10 +6162,10 @@
         <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E177" t="s">
         <v>4</v>
@@ -6147,13 +6177,13 @@
         <v>2</v>
       </c>
       <c r="H177" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I177" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J177" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -6161,13 +6191,13 @@
         <v>0</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>13</v>
       </c>
-      <c r="D178" s="1">
-        <v>43752</v>
+      <c r="D178" t="s">
+        <v>19</v>
       </c>
       <c r="E178" t="s">
         <v>4</v>
@@ -6193,16 +6223,16 @@
         <v>0</v>
       </c>
       <c r="B179" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C179" t="s">
-        <v>2</v>
-      </c>
-      <c r="D179" t="s">
-        <v>19</v>
-      </c>
-      <c r="E179" s="1">
-        <v>43529</v>
+        <v>13</v>
+      </c>
+      <c r="D179" s="1">
+        <v>43752</v>
+      </c>
+      <c r="E179" t="s">
+        <v>4</v>
       </c>
       <c r="F179" t="s">
         <v>5</v>
@@ -6211,13 +6241,13 @@
         <v>2</v>
       </c>
       <c r="H179" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I179" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J179" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -6225,28 +6255,28 @@
         <v>0</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C180" t="s">
         <v>2</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
-      </c>
-      <c r="E180" t="s">
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E180" s="1">
+        <v>43529</v>
       </c>
       <c r="F180" t="s">
         <v>5</v>
       </c>
       <c r="G180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H180" t="s">
         <v>10</v>
       </c>
       <c r="I180" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J180" t="s">
         <v>27</v>
@@ -6263,13 +6293,13 @@
         <v>2</v>
       </c>
       <c r="D181" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E181" t="s">
         <v>4</v>
       </c>
       <c r="F181" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -6278,7 +6308,7 @@
         <v>10</v>
       </c>
       <c r="I181" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J181" t="s">
         <v>27</v>
@@ -6310,7 +6340,7 @@
         <v>10</v>
       </c>
       <c r="I182" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J182" t="s">
         <v>27</v>
@@ -6327,16 +6357,16 @@
         <v>2</v>
       </c>
       <c r="D183" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E183" t="s">
         <v>4</v>
       </c>
       <c r="F183" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H183" t="s">
         <v>10</v>
@@ -6353,28 +6383,28 @@
         <v>0</v>
       </c>
       <c r="B184" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D184" t="s">
-        <v>3</v>
-      </c>
-      <c r="E184" s="1">
-        <v>43719</v>
+        <v>19</v>
+      </c>
+      <c r="E184" t="s">
+        <v>4</v>
       </c>
       <c r="F184" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H184" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I184" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J184" t="s">
         <v>27</v>
@@ -6406,7 +6436,7 @@
         <v>6</v>
       </c>
       <c r="I185" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J185" t="s">
         <v>27</v>
@@ -6417,25 +6447,25 @@
         <v>0</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C186" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E186" s="1">
-        <v>43624</v>
+        <v>43719</v>
       </c>
       <c r="F186" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H186" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I186" t="s">
         <v>7</v>
@@ -6449,31 +6479,31 @@
         <v>0</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D187" t="s">
-        <v>19</v>
-      </c>
-      <c r="E187" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E187" s="1">
+        <v>43624</v>
       </c>
       <c r="F187" t="s">
         <v>5</v>
       </c>
       <c r="G187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I187" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J187" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -6481,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C188" t="s">
         <v>13</v>
       </c>
       <c r="D188" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E188" t="s">
         <v>4</v>
@@ -6496,16 +6526,16 @@
         <v>5</v>
       </c>
       <c r="G188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>6</v>
       </c>
       <c r="I188" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J188" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -6513,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C189" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="1">
-        <v>43752</v>
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
       </c>
       <c r="E189" t="s">
         <v>4</v>
@@ -6531,13 +6561,13 @@
         <v>2</v>
       </c>
       <c r="H189" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I189" t="s">
         <v>15</v>
       </c>
       <c r="J189" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -6545,19 +6575,19 @@
         <v>0</v>
       </c>
       <c r="B190" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
-      </c>
-      <c r="D190" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D190" s="1">
+        <v>43752</v>
       </c>
       <c r="E190" t="s">
         <v>4</v>
       </c>
       <c r="F190" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G190">
         <v>2</v>
@@ -6577,31 +6607,31 @@
         <v>0</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C191" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>14</v>
-      </c>
-      <c r="E191" s="1">
-        <v>43813</v>
+        <v>9</v>
+      </c>
+      <c r="E191" t="s">
+        <v>4</v>
       </c>
       <c r="F191" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G191">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H191" t="s">
         <v>10</v>
       </c>
       <c r="I191" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J191" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -6615,22 +6645,22 @@
         <v>2</v>
       </c>
       <c r="D192" t="s">
-        <v>19</v>
-      </c>
-      <c r="E192" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E192" s="1">
+        <v>43813</v>
       </c>
       <c r="F192" t="s">
         <v>5</v>
       </c>
       <c r="G192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H192" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I192" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J192" t="s">
         <v>27</v>
@@ -6641,19 +6671,19 @@
         <v>0</v>
       </c>
       <c r="B193" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D193" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193" s="1">
-        <v>43624</v>
+        <v>19</v>
+      </c>
+      <c r="E193" t="s">
+        <v>4</v>
       </c>
       <c r="F193" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -6662,10 +6692,10 @@
         <v>6</v>
       </c>
       <c r="I193" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J193" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -6673,19 +6703,19 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C194" t="s">
-        <v>2</v>
-      </c>
-      <c r="D194" s="1">
-        <v>43752</v>
-      </c>
-      <c r="E194" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+      <c r="E194" s="1">
+        <v>43624</v>
       </c>
       <c r="F194" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -6694,7 +6724,7 @@
         <v>6</v>
       </c>
       <c r="I194" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J194" t="s">
         <v>5</v>
@@ -6705,31 +6735,31 @@
         <v>0</v>
       </c>
       <c r="B195" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C195" t="s">
         <v>2</v>
       </c>
-      <c r="D195" t="s">
-        <v>20</v>
+      <c r="D195" s="1">
+        <v>43752</v>
       </c>
       <c r="E195" t="s">
         <v>4</v>
       </c>
       <c r="F195" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G195">
         <v>2</v>
       </c>
       <c r="H195" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I195" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J195" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -6740,28 +6770,28 @@
         <v>18</v>
       </c>
       <c r="C196" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D196" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E196" t="s">
         <v>4</v>
       </c>
       <c r="F196" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G196">
         <v>2</v>
       </c>
       <c r="H196" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I196" t="s">
         <v>15</v>
       </c>
       <c r="J196" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -6772,22 +6802,22 @@
         <v>18</v>
       </c>
       <c r="C197" t="s">
-        <v>2</v>
-      </c>
-      <c r="D197" s="1">
-        <v>43752</v>
-      </c>
-      <c r="E197" s="1">
-        <v>43529</v>
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>24</v>
+      </c>
+      <c r="E197" t="s">
+        <v>4</v>
       </c>
       <c r="F197" t="s">
         <v>5</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I197" t="s">
         <v>15</v>
@@ -6801,7 +6831,7 @@
         <v>0</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C198" t="s">
         <v>2</v>
@@ -6809,23 +6839,23 @@
       <c r="D198" s="1">
         <v>43752</v>
       </c>
-      <c r="E198" t="s">
-        <v>4</v>
+      <c r="E198" s="1">
+        <v>43529</v>
       </c>
       <c r="F198" t="s">
         <v>5</v>
       </c>
       <c r="G198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H198" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I198" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J198" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -6833,19 +6863,19 @@
         <v>0</v>
       </c>
       <c r="B199" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>13</v>
-      </c>
-      <c r="D199" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="D199" s="1">
+        <v>43752</v>
       </c>
       <c r="E199" t="s">
         <v>4</v>
       </c>
       <c r="F199" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G199">
         <v>2</v>
@@ -6854,7 +6884,7 @@
         <v>6</v>
       </c>
       <c r="I199" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J199" t="s">
         <v>27</v>
@@ -6868,28 +6898,28 @@
         <v>18</v>
       </c>
       <c r="C200" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E200" t="s">
         <v>4</v>
       </c>
       <c r="F200" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>6</v>
       </c>
       <c r="I200" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J200" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -6897,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C201" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D201" t="s">
         <v>19</v>
@@ -6912,10 +6942,10 @@
         <v>5</v>
       </c>
       <c r="G201">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I201" t="s">
         <v>7</v>
@@ -6926,16 +6956,16 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B202" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E202" t="s">
         <v>4</v>
@@ -6944,10 +6974,10 @@
         <v>5</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H202" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I202" t="s">
         <v>7</v>
@@ -6961,13 +6991,13 @@
         <v>31</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C203" t="s">
         <v>2</v>
       </c>
       <c r="D203" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E203" t="s">
         <v>4</v>
@@ -6976,7 +7006,7 @@
         <v>5</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H203" t="s">
         <v>6</v>
@@ -6993,13 +7023,13 @@
         <v>31</v>
       </c>
       <c r="B204" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D204" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E204" t="s">
         <v>4</v>
@@ -7008,7 +7038,7 @@
         <v>5</v>
       </c>
       <c r="G204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="s">
         <v>6</v>
@@ -7028,10 +7058,10 @@
         <v>18</v>
       </c>
       <c r="C205" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E205" t="s">
         <v>4</v>
@@ -7046,7 +7076,7 @@
         <v>6</v>
       </c>
       <c r="I205" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J205" t="s">
         <v>5</v>
@@ -7057,13 +7087,13 @@
         <v>31</v>
       </c>
       <c r="B206" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C206" t="s">
         <v>2</v>
       </c>
       <c r="D206" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E206" t="s">
         <v>4</v>
@@ -7075,10 +7105,10 @@
         <v>2</v>
       </c>
       <c r="H206" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I206" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J206" t="s">
         <v>5</v>
@@ -7089,13 +7119,13 @@
         <v>31</v>
       </c>
       <c r="B207" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D207" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E207" t="s">
         <v>4</v>
@@ -7104,13 +7134,13 @@
         <v>5</v>
       </c>
       <c r="G207">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H207" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I207" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="J207" t="s">
         <v>5</v>
@@ -7124,10 +7154,10 @@
         <v>18</v>
       </c>
       <c r="C208" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E208" t="s">
         <v>4</v>
@@ -7136,13 +7166,13 @@
         <v>5</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H208" t="s">
         <v>6</v>
       </c>
       <c r="I208" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J208" t="s">
         <v>5</v>
@@ -7159,7 +7189,7 @@
         <v>2</v>
       </c>
       <c r="D209" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E209" t="s">
         <v>4</v>
@@ -7168,7 +7198,7 @@
         <v>5</v>
       </c>
       <c r="G209">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H209" t="s">
         <v>6</v>
@@ -7185,13 +7215,13 @@
         <v>31</v>
       </c>
       <c r="B210" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C210" t="s">
         <v>2</v>
       </c>
       <c r="D210" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E210" t="s">
         <v>4</v>
@@ -7200,13 +7230,13 @@
         <v>5</v>
       </c>
       <c r="G210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H210" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I210" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J210" t="s">
         <v>5</v>
@@ -7223,7 +7253,7 @@
         <v>2</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E211" t="s">
         <v>4</v>
@@ -7232,13 +7262,13 @@
         <v>5</v>
       </c>
       <c r="G211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I211" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J211" t="s">
         <v>5</v>
@@ -7249,10 +7279,10 @@
         <v>31</v>
       </c>
       <c r="B212" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -7267,10 +7297,10 @@
         <v>2</v>
       </c>
       <c r="H212" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I212" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="J212" t="s">
         <v>5</v>
@@ -7281,13 +7311,13 @@
         <v>31</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C213" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D213" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E213" t="s">
         <v>4</v>
@@ -7296,13 +7326,13 @@
         <v>5</v>
       </c>
       <c r="G213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H213" t="s">
         <v>10</v>
       </c>
       <c r="I213" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="J213" t="s">
         <v>5</v>
@@ -7313,13 +7343,13 @@
         <v>31</v>
       </c>
       <c r="B214" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>2</v>
       </c>
       <c r="D214" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E214" t="s">
         <v>4</v>
@@ -7328,13 +7358,13 @@
         <v>5</v>
       </c>
       <c r="G214">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H214" t="s">
         <v>10</v>
       </c>
       <c r="I214" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J214" t="s">
         <v>5</v>
@@ -7345,13 +7375,13 @@
         <v>31</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C215" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D215" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E215" t="s">
         <v>4</v>
@@ -7360,13 +7390,13 @@
         <v>5</v>
       </c>
       <c r="G215">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H215" t="s">
         <v>10</v>
       </c>
       <c r="I215" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J215" t="s">
         <v>5</v>
@@ -7377,13 +7407,13 @@
         <v>31</v>
       </c>
       <c r="B216" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E216" t="s">
         <v>4</v>
@@ -7398,7 +7428,7 @@
         <v>10</v>
       </c>
       <c r="I216" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J216" t="s">
         <v>5</v>
@@ -7409,7 +7439,7 @@
         <v>31</v>
       </c>
       <c r="B217" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
@@ -7427,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="H217" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I217" t="s">
         <v>15</v>
@@ -7441,13 +7471,13 @@
         <v>31</v>
       </c>
       <c r="B218" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C218" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D218" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E218" t="s">
         <v>4</v>
@@ -7473,13 +7503,13 @@
         <v>31</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D219" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E219" t="s">
         <v>4</v>
@@ -7488,13 +7518,13 @@
         <v>5</v>
       </c>
       <c r="G219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H219" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I219" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J219" t="s">
         <v>5</v>
@@ -7505,13 +7535,13 @@
         <v>31</v>
       </c>
       <c r="B220" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D220" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E220" t="s">
         <v>4</v>
@@ -7520,13 +7550,13 @@
         <v>5</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H220" t="s">
         <v>10</v>
       </c>
       <c r="I220" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J220" t="s">
         <v>5</v>
@@ -7537,13 +7567,13 @@
         <v>31</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C221" t="s">
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E221" t="s">
         <v>4</v>
@@ -7552,13 +7582,13 @@
         <v>5</v>
       </c>
       <c r="G221">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I221" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J221" t="s">
         <v>5</v>
@@ -7569,13 +7599,13 @@
         <v>31</v>
       </c>
       <c r="B222" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E222" t="s">
         <v>4</v>
@@ -7584,13 +7614,13 @@
         <v>5</v>
       </c>
       <c r="G222">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H222" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I222" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J222" t="s">
         <v>5</v>
@@ -7601,13 +7631,13 @@
         <v>31</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C223" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E223" t="s">
         <v>4</v>
@@ -7616,16 +7646,16 @@
         <v>5</v>
       </c>
       <c r="G223">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H223" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I223" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J223" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -7639,7 +7669,7 @@
         <v>13</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E224" t="s">
         <v>4</v>
@@ -7651,13 +7681,13 @@
         <v>3</v>
       </c>
       <c r="H224" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I224" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J224" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -7665,31 +7695,31 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>19</v>
-      </c>
-      <c r="E225" s="1">
-        <v>43529</v>
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>4</v>
       </c>
       <c r="F225" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G225">
         <v>3</v>
       </c>
       <c r="H225" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I225" t="s">
         <v>7</v>
       </c>
       <c r="J225" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -7697,25 +7727,25 @@
         <v>31</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C226" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E226" s="1">
         <v>43529</v>
       </c>
       <c r="F226" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G226">
         <v>3</v>
       </c>
       <c r="H226" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I226" t="s">
         <v>7</v>
@@ -7732,28 +7762,28 @@
         <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>3</v>
-      </c>
-      <c r="E227" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E227" s="1">
+        <v>43529</v>
       </c>
       <c r="F227" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G227">
         <v>3</v>
       </c>
       <c r="H227" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I227" t="s">
         <v>7</v>
       </c>
       <c r="J227" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -7761,7 +7791,7 @@
         <v>31</v>
       </c>
       <c r="B228" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>2</v>
@@ -7770,22 +7800,22 @@
         <v>3</v>
       </c>
       <c r="E228" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F228" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G228">
         <v>3</v>
       </c>
       <c r="H228" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I228" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J228" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -7793,19 +7823,19 @@
         <v>31</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C229" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>23</v>
-      </c>
-      <c r="E229" s="1">
-        <v>43529</v>
+        <v>3</v>
+      </c>
+      <c r="E229" t="s">
+        <v>4</v>
       </c>
       <c r="F229" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G229">
         <v>3</v>
@@ -7814,10 +7844,10 @@
         <v>10</v>
       </c>
       <c r="I229" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J229" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -7831,25 +7861,25 @@
         <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>28</v>
-      </c>
-      <c r="E230" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="E230" s="1">
+        <v>43529</v>
       </c>
       <c r="F230" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H230" t="s">
         <v>10</v>
       </c>
       <c r="I230" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J230" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -7857,31 +7887,31 @@
         <v>31</v>
       </c>
       <c r="B231" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D231" t="s">
-        <v>20</v>
-      </c>
-      <c r="E231" s="1">
-        <v>43719</v>
+        <v>28</v>
+      </c>
+      <c r="E231" t="s">
+        <v>4</v>
       </c>
       <c r="F231" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H231" t="s">
         <v>10</v>
       </c>
       <c r="I231" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J231" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -7889,19 +7919,19 @@
         <v>31</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C232" t="s">
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E232" s="1">
-        <v>43529</v>
+        <v>43719</v>
       </c>
       <c r="F232" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -7921,7 +7951,7 @@
         <v>31</v>
       </c>
       <c r="B233" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>2</v>
@@ -7936,7 +7966,7 @@
         <v>5</v>
       </c>
       <c r="G233">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H233" t="s">
         <v>10</v>
@@ -7945,7 +7975,7 @@
         <v>15</v>
       </c>
       <c r="J233" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -7953,28 +7983,28 @@
         <v>31</v>
       </c>
       <c r="B234" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C234" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E234" s="1">
-        <v>43719</v>
+        <v>43529</v>
       </c>
       <c r="F234" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G234">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H234" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I234" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J234" t="s">
         <v>27</v>
@@ -7985,28 +8015,28 @@
         <v>31</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C235" t="s">
         <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="E235" s="1">
+        <v>43719</v>
       </c>
       <c r="F235" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I235" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J235" t="s">
         <v>27</v>
@@ -8017,28 +8047,28 @@
         <v>31</v>
       </c>
       <c r="B236" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C236" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D236" t="s">
-        <v>19</v>
-      </c>
-      <c r="E236" s="1">
-        <v>43529</v>
+        <v>3</v>
+      </c>
+      <c r="E236" t="s">
+        <v>4</v>
       </c>
       <c r="F236" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G236">
         <v>3</v>
       </c>
       <c r="H236" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I236" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J236" t="s">
         <v>27</v>
@@ -8049,7 +8079,7 @@
         <v>31</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C237" t="s">
         <v>2</v>
@@ -8057,23 +8087,23 @@
       <c r="D237" t="s">
         <v>19</v>
       </c>
-      <c r="E237" t="s">
-        <v>4</v>
+      <c r="E237" s="1">
+        <v>43529</v>
       </c>
       <c r="F237" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H237" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I237" t="s">
         <v>7</v>
       </c>
       <c r="J237" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -8113,13 +8143,13 @@
         <v>31</v>
       </c>
       <c r="B239" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C239" t="s">
         <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E239" t="s">
         <v>4</v>
@@ -8128,10 +8158,10 @@
         <v>5</v>
       </c>
       <c r="G239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H239" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I239" t="s">
         <v>7</v>
@@ -8145,31 +8175,31 @@
         <v>31</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C240" t="s">
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>9</v>
-      </c>
-      <c r="E240" s="1">
-        <v>43529</v>
+        <v>24</v>
+      </c>
+      <c r="E240" t="s">
+        <v>4</v>
       </c>
       <c r="F240" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H240" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I240" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J240" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -8177,10 +8207,10 @@
         <v>31</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
@@ -8189,16 +8219,16 @@
         <v>43529</v>
       </c>
       <c r="F241" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G241">
         <v>2</v>
       </c>
       <c r="H241" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I241" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J241" t="s">
         <v>27</v>
@@ -8209,22 +8239,22 @@
         <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D242" t="s">
-        <v>14</v>
-      </c>
-      <c r="E242" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="E242" s="1">
+        <v>43529</v>
       </c>
       <c r="F242" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H242" t="s">
         <v>6</v>
@@ -8233,7 +8263,7 @@
         <v>7</v>
       </c>
       <c r="J242" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -8241,19 +8271,19 @@
         <v>31</v>
       </c>
       <c r="B243" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>19</v>
-      </c>
-      <c r="E243" s="1">
-        <v>43624</v>
+        <v>14</v>
+      </c>
+      <c r="E243" t="s">
+        <v>30</v>
       </c>
       <c r="F243" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G243">
         <v>3</v>
@@ -8265,7 +8295,7 @@
         <v>7</v>
       </c>
       <c r="J243" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -8279,25 +8309,25 @@
         <v>13</v>
       </c>
       <c r="D244" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E244" s="1">
-        <v>43529</v>
+        <v>43624</v>
       </c>
       <c r="F244" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G244">
         <v>3</v>
       </c>
       <c r="H244" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I244" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J244" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -8305,16 +8335,16 @@
         <v>31</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C245" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E245" s="1">
-        <v>43813</v>
+        <v>43529</v>
       </c>
       <c r="F245" t="s">
         <v>27</v>
@@ -8323,13 +8353,13 @@
         <v>3</v>
       </c>
       <c r="H245" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I245" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J245" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -8337,7 +8367,7 @@
         <v>31</v>
       </c>
       <c r="B246" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -8346,16 +8376,16 @@
         <v>3</v>
       </c>
       <c r="E246" s="1">
-        <v>43719</v>
+        <v>43813</v>
       </c>
       <c r="F246" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G246">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I246" t="s">
         <v>15</v>
@@ -8375,22 +8405,22 @@
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E247" s="1">
-        <v>43624</v>
+        <v>43719</v>
       </c>
       <c r="F247" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H247" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I247" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J247" t="s">
         <v>27</v>
@@ -8401,16 +8431,16 @@
         <v>31</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E248" s="1">
-        <v>43719</v>
+        <v>43624</v>
       </c>
       <c r="F248" t="s">
         <v>27</v>
@@ -8422,7 +8452,7 @@
         <v>6</v>
       </c>
       <c r="I248" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J248" t="s">
         <v>27</v>
@@ -8433,16 +8463,16 @@
         <v>31</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C249" t="s">
         <v>13</v>
       </c>
       <c r="D249" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="E249" s="1">
-        <v>43624</v>
+        <v>43719</v>
       </c>
       <c r="F249" t="s">
         <v>27</v>
@@ -8454,10 +8484,10 @@
         <v>6</v>
       </c>
       <c r="I249" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J249" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -8465,22 +8495,22 @@
         <v>31</v>
       </c>
       <c r="B250" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C250" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D250" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E250" s="1">
-        <v>43529</v>
+        <v>43624</v>
       </c>
       <c r="F250" t="s">
         <v>27</v>
       </c>
       <c r="G250">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H250" t="s">
         <v>6</v>
@@ -8497,28 +8527,28 @@
         <v>31</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C251" t="s">
         <v>2</v>
       </c>
       <c r="D251" t="s">
-        <v>19</v>
-      </c>
-      <c r="E251" t="s">
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="E251" s="1">
+        <v>43529</v>
       </c>
       <c r="F251" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G251">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H251" t="s">
         <v>6</v>
       </c>
       <c r="I251" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J251" t="s">
         <v>5</v>
@@ -8535,7 +8565,7 @@
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E252" t="s">
         <v>4</v>
@@ -8544,16 +8574,16 @@
         <v>5</v>
       </c>
       <c r="G252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H252" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I252" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J252" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -8561,13 +8591,13 @@
         <v>31</v>
       </c>
       <c r="B253" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E253" t="s">
         <v>4</v>
@@ -8576,16 +8606,16 @@
         <v>5</v>
       </c>
       <c r="G253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H253" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I253" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J253" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -8593,13 +8623,13 @@
         <v>31</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C254" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E254" t="s">
         <v>4</v>
@@ -8608,10 +8638,10 @@
         <v>5</v>
       </c>
       <c r="G254">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I254" t="s">
         <v>15</v>
@@ -8625,19 +8655,19 @@
         <v>31</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C255" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E255" t="s">
         <v>4</v>
       </c>
       <c r="F255" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G255">
         <v>3</v>
@@ -8646,7 +8676,7 @@
         <v>10</v>
       </c>
       <c r="I255" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J255" t="s">
         <v>5</v>
@@ -8665,8 +8695,8 @@
       <c r="D256" t="s">
         <v>3</v>
       </c>
-      <c r="E256" s="1">
-        <v>43624</v>
+      <c r="E256" t="s">
+        <v>4</v>
       </c>
       <c r="F256" t="s">
         <v>27</v>
@@ -8678,7 +8708,7 @@
         <v>10</v>
       </c>
       <c r="I256" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J256" t="s">
         <v>5</v>
@@ -8697,23 +8727,23 @@
       <c r="D257" t="s">
         <v>3</v>
       </c>
-      <c r="E257" t="s">
-        <v>4</v>
+      <c r="E257" s="1">
+        <v>43624</v>
       </c>
       <c r="F257" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G257">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H257" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I257" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J257" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
@@ -8727,16 +8757,16 @@
         <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>9</v>
-      </c>
-      <c r="E258" s="1">
-        <v>43529</v>
+        <v>3</v>
+      </c>
+      <c r="E258" t="s">
+        <v>4</v>
       </c>
       <c r="F258" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G258">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H258" t="s">
         <v>6</v>
@@ -8753,16 +8783,16 @@
         <v>31</v>
       </c>
       <c r="B259" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C259" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E259" s="1">
-        <v>43624</v>
+        <v>43529</v>
       </c>
       <c r="F259" t="s">
         <v>27</v>
@@ -8774,7 +8804,7 @@
         <v>6</v>
       </c>
       <c r="I259" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J259" t="s">
         <v>27</v>
@@ -8794,22 +8824,22 @@
         <v>3</v>
       </c>
       <c r="E260" s="1">
-        <v>43529</v>
+        <v>43624</v>
       </c>
       <c r="F260" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G260">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H260" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I260" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J260" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -8817,13 +8847,13 @@
         <v>31</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C261" t="s">
         <v>13</v>
       </c>
       <c r="D261" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E261" s="1">
         <v>43529</v>
@@ -8832,13 +8862,13 @@
         <v>5</v>
       </c>
       <c r="G261">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H261" t="s">
         <v>10</v>
       </c>
       <c r="I261" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J261" t="s">
         <v>5</v>
@@ -8849,7 +8879,7 @@
         <v>31</v>
       </c>
       <c r="B262" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C262" t="s">
         <v>13</v>
@@ -8858,22 +8888,22 @@
         <v>19</v>
       </c>
       <c r="E262" s="1">
-        <v>43813</v>
+        <v>43529</v>
       </c>
       <c r="F262" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H262" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I262" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J262" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
@@ -8881,7 +8911,7 @@
         <v>31</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C263" t="s">
         <v>13</v>
@@ -8889,11 +8919,11 @@
       <c r="D263" t="s">
         <v>19</v>
       </c>
-      <c r="E263" t="s">
-        <v>4</v>
+      <c r="E263" s="1">
+        <v>43813</v>
       </c>
       <c r="F263" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G263">
         <v>3</v>
@@ -8902,10 +8932,10 @@
         <v>6</v>
       </c>
       <c r="I263" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J263" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
@@ -8913,22 +8943,22 @@
         <v>31</v>
       </c>
       <c r="B264" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C264" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D264" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E264" t="s">
         <v>4</v>
       </c>
       <c r="F264" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H264" t="s">
         <v>6</v>
@@ -8966,7 +8996,7 @@
         <v>6</v>
       </c>
       <c r="I265" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J265" t="s">
         <v>5</v>
@@ -8977,22 +9007,22 @@
         <v>31</v>
       </c>
       <c r="B266" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C266" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D266" t="s">
-        <v>24</v>
-      </c>
-      <c r="E266" s="1">
-        <v>43719</v>
+        <v>9</v>
+      </c>
+      <c r="E266" t="s">
+        <v>4</v>
       </c>
       <c r="F266" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>6</v>
@@ -9009,28 +9039,28 @@
         <v>31</v>
       </c>
       <c r="B267" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C267" t="s">
         <v>2</v>
       </c>
       <c r="D267" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E267" s="1">
-        <v>43529</v>
+        <v>43719</v>
       </c>
       <c r="F267" t="s">
         <v>27</v>
       </c>
       <c r="G267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H267" t="s">
         <v>6</v>
       </c>
       <c r="I267" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J267" t="s">
         <v>5</v>
@@ -9041,31 +9071,31 @@
         <v>31</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C268" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D268" t="s">
-        <v>9</v>
-      </c>
-      <c r="E268" t="s">
-        <v>32</v>
+        <v>3</v>
+      </c>
+      <c r="E268" s="1">
+        <v>43529</v>
       </c>
       <c r="F268" t="s">
         <v>27</v>
       </c>
       <c r="G268">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>6</v>
       </c>
       <c r="I268" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J268" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
@@ -9073,19 +9103,19 @@
         <v>31</v>
       </c>
       <c r="B269" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C269" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D269" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="E269" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F269" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G269">
         <v>3</v>
@@ -9097,7 +9127,7 @@
         <v>7</v>
       </c>
       <c r="J269" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -9105,13 +9135,13 @@
         <v>31</v>
       </c>
       <c r="B270" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C270" t="s">
         <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E270" t="s">
         <v>4</v>
@@ -9120,7 +9150,7 @@
         <v>5</v>
       </c>
       <c r="G270">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H270" t="s">
         <v>6</v>
@@ -9129,7 +9159,7 @@
         <v>7</v>
       </c>
       <c r="J270" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -9137,31 +9167,31 @@
         <v>31</v>
       </c>
       <c r="B271" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C271" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D271" t="s">
-        <v>3</v>
-      </c>
-      <c r="E271" s="1">
-        <v>43624</v>
+        <v>19</v>
+      </c>
+      <c r="E271" t="s">
+        <v>4</v>
       </c>
       <c r="F271" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H271" t="s">
         <v>6</v>
       </c>
       <c r="I271" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="J271" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -9172,28 +9202,28 @@
         <v>18</v>
       </c>
       <c r="C272" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D272" t="s">
-        <v>19</v>
-      </c>
-      <c r="E272" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E272" s="1">
+        <v>43624</v>
       </c>
       <c r="F272" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G272">
         <v>3</v>
       </c>
       <c r="H272" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I272" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="J272" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
@@ -9201,19 +9231,19 @@
         <v>31</v>
       </c>
       <c r="B273" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C273" t="s">
         <v>2</v>
       </c>
       <c r="D273" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E273" t="s">
         <v>4</v>
       </c>
       <c r="F273" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G273">
         <v>3</v>
@@ -9222,10 +9252,10 @@
         <v>10</v>
       </c>
       <c r="I273" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J273" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
@@ -9233,13 +9263,13 @@
         <v>31</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C274" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D274" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E274" t="s">
         <v>4</v>
@@ -9248,16 +9278,16 @@
         <v>27</v>
       </c>
       <c r="G274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H274" t="s">
         <v>10</v>
       </c>
       <c r="I274" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J274" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
@@ -9273,8 +9303,8 @@
       <c r="D275" t="s">
         <v>3</v>
       </c>
-      <c r="E275" s="1">
-        <v>43529</v>
+      <c r="E275" t="s">
+        <v>4</v>
       </c>
       <c r="F275" t="s">
         <v>27</v>
@@ -9283,10 +9313,10 @@
         <v>2</v>
       </c>
       <c r="H275" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I275" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J275" t="s">
         <v>27</v>
@@ -9297,31 +9327,31 @@
         <v>31</v>
       </c>
       <c r="B276" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C276" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D276" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E276" s="1">
-        <v>43719</v>
+        <v>43529</v>
       </c>
       <c r="F276" t="s">
         <v>27</v>
       </c>
       <c r="G276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H276" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I276" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J276" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -9329,7 +9359,7 @@
         <v>31</v>
       </c>
       <c r="B277" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C277" t="s">
         <v>2</v>
@@ -9338,7 +9368,7 @@
         <v>19</v>
       </c>
       <c r="E277" s="1">
-        <v>43624</v>
+        <v>43719</v>
       </c>
       <c r="F277" t="s">
         <v>27</v>
@@ -9347,13 +9377,13 @@
         <v>3</v>
       </c>
       <c r="H277" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I277" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J277" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -9361,13 +9391,13 @@
         <v>31</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C278" t="s">
-        <v>13</v>
-      </c>
-      <c r="D278" s="1">
-        <v>43752</v>
+        <v>2</v>
+      </c>
+      <c r="D278" t="s">
+        <v>19</v>
       </c>
       <c r="E278" s="1">
         <v>43624</v>
@@ -9382,7 +9412,7 @@
         <v>6</v>
       </c>
       <c r="I278" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J278" t="s">
         <v>27</v>
@@ -9393,16 +9423,16 @@
         <v>31</v>
       </c>
       <c r="B279" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C279" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" t="s">
-        <v>24</v>
-      </c>
-      <c r="E279" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="D279" s="1">
+        <v>43752</v>
+      </c>
+      <c r="E279" s="1">
+        <v>43624</v>
       </c>
       <c r="F279" t="s">
         <v>27</v>
@@ -9411,13 +9441,13 @@
         <v>3</v>
       </c>
       <c r="H279" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I279" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J279" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
@@ -9428,13 +9458,13 @@
         <v>18</v>
       </c>
       <c r="C280" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D280" t="s">
-        <v>23</v>
-      </c>
-      <c r="E280" s="1">
-        <v>43624</v>
+        <v>24</v>
+      </c>
+      <c r="E280" t="s">
+        <v>30</v>
       </c>
       <c r="F280" t="s">
         <v>27</v>
@@ -9443,13 +9473,13 @@
         <v>3</v>
       </c>
       <c r="H280" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I280" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J280" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
@@ -9489,31 +9519,31 @@
         <v>31</v>
       </c>
       <c r="B282" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C282" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D282" t="s">
-        <v>3</v>
-      </c>
-      <c r="E282" t="s">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="E282" s="1">
+        <v>43624</v>
       </c>
       <c r="F282" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G282">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H282" t="s">
         <v>6</v>
       </c>
       <c r="I282" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J282" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
@@ -9527,7 +9557,7 @@
         <v>2</v>
       </c>
       <c r="D283" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E283" t="s">
         <v>4</v>
@@ -9536,7 +9566,7 @@
         <v>5</v>
       </c>
       <c r="G283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H283" t="s">
         <v>6</v>
@@ -9545,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="J283" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
@@ -9553,10 +9583,10 @@
         <v>31</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C284" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D284" t="s">
         <v>9</v>
@@ -9568,16 +9598,16 @@
         <v>5</v>
       </c>
       <c r="G284">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H284" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I284" t="s">
         <v>15</v>
       </c>
       <c r="J284" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
@@ -9585,28 +9615,28 @@
         <v>31</v>
       </c>
       <c r="B285" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C285" t="s">
         <v>13</v>
       </c>
       <c r="D285" t="s">
-        <v>3</v>
-      </c>
-      <c r="E285" s="1">
-        <v>43529</v>
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>4</v>
       </c>
       <c r="F285" t="s">
         <v>5</v>
       </c>
       <c r="G285">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I285" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J285" t="s">
         <v>5</v>
@@ -9617,7 +9647,7 @@
         <v>31</v>
       </c>
       <c r="B286" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C286" t="s">
         <v>13</v>
@@ -9641,6 +9671,38 @@
         <v>7</v>
       </c>
       <c r="J286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>31</v>
+      </c>
+      <c r="B287" t="s">
+        <v>18</v>
+      </c>
+      <c r="C287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D287" t="s">
+        <v>3</v>
+      </c>
+      <c r="E287" s="1">
+        <v>43529</v>
+      </c>
+      <c r="F287" t="s">
+        <v>5</v>
+      </c>
+      <c r="G287">
+        <v>3</v>
+      </c>
+      <c r="H287" t="s">
+        <v>6</v>
+      </c>
+      <c r="I287" t="s">
+        <v>7</v>
+      </c>
+      <c r="J287" t="s">
         <v>5</v>
       </c>
     </row>
